--- a/rancang-data-db.xlsx
+++ b/rancang-data-db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\code-pbw\tugas-crud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302C3ED3-9623-45E4-B771-14404609D3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48B10B6-F479-4EEE-9D51-370E480231AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{C4B2A891-221D-4ABB-A30C-6991C1E6A766}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{C4B2A891-221D-4ABB-A30C-6991C1E6A766}"/>
   </bookViews>
   <sheets>
     <sheet name="Output KRS" sheetId="1" r:id="rId1"/>
@@ -725,9 +725,6 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>Sistem Informasi</t>
-  </si>
-  <si>
     <t>Teknik Informatika</t>
   </si>
   <si>
@@ -786,6 +783,9 @@
   </si>
   <si>
     <t>matakuliah_kodemk</t>
+  </si>
+  <si>
+    <t>Sistem Operasi</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1400,10 +1400,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1414,10 +1414,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1428,10 +1428,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1442,10 +1442,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1456,10 +1456,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,10 +1470,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,10 +1484,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,10 +1498,10 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1512,10 +1512,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1528,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,18 +1540,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,13 +1615,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>2110631250059</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>2110631250060</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>2110631250061</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
         <v>2110631250062</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,7 +1676,7 @@
         <v>2110631250063</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,7 +1687,7 @@
         <v>2110631250064</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>2110631250065</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>2110631250066</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
         <v>2110631250067</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>2110631250068</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
